--- a/data/bakery_orders.xlsx
+++ b/data/bakery_orders.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franzv/Desktop/dataSci/ds_projects/portunion_bakery/forGit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6545B2-CD6F-3D43-89D1-42331CC130B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA1D0DE-548C-E14B-913C-6E548DAD2F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="539">
   <si>
     <t>Submitted On</t>
   </si>
@@ -1176,15 +1176,6 @@
     <t>- Dozen Donuts (6 Chocolate Dipped Sprinkled Sprinkled, 2 Dutchies, 2 Cinnamon Twist, 2 Honey Glazed)
 - Dozen Muffins (2 Apple Cinnamon, 2 Banana, 2 Banana Chocolate Chip, 2 Bran, 2 Carrot, 2 Chocolate Chip)
 - 1 White Bread</t>
-  </si>
-  <si>
-    <t>Hello,
-I called yesterday and even came by your store.
-I am in search of a bakery to facilitate the bakery section of my supermarket/grocery store.
-I am looking for someone who can take my order the night before and supply bakery items daily in the morning.
-If you are interested, please contact me by email or by phone.
-647-643-9566
-hirosh@ceylon-supermarket.com</t>
   </si>
   <si>
     <t>Ensaymada - 1 Full Tray &amp; 2 Small Plates
@@ -2982,10 +2973,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H435"/>
+  <dimension ref="A1:H434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5095,13 +5086,13 @@
     </row>
     <row r="150" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="2">
-        <v>44246.605520833335</v>
+        <v>44246.691157407404</v>
       </c>
       <c r="B150" s="3">
-        <v>44246</v>
+        <v>44248</v>
       </c>
       <c r="C150" s="4">
-        <v>0.79166666666666663</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>254</v>
@@ -5109,13 +5100,13 @@
     </row>
     <row r="151" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="2">
-        <v>44246.691157407404</v>
+        <v>44247.798206018517</v>
       </c>
       <c r="B151" s="3">
-        <v>44248</v>
+        <v>43886</v>
       </c>
       <c r="C151" s="4">
-        <v>0.48958333333333331</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>255</v>
@@ -5123,13 +5114,13 @@
     </row>
     <row r="152" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="2">
-        <v>44247.798206018517</v>
+        <v>44249.58734953704</v>
       </c>
       <c r="B152" s="3">
-        <v>43886</v>
+        <v>44261</v>
       </c>
       <c r="C152" s="4">
-        <v>0.58333333333333337</v>
+        <v>0.4375</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>256</v>
@@ -5137,13 +5128,13 @@
     </row>
     <row r="153" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="2">
-        <v>44249.58734953704</v>
+        <v>44249.674062500002</v>
       </c>
       <c r="B153" s="3">
-        <v>44261</v>
+        <v>44255</v>
       </c>
       <c r="C153" s="4">
-        <v>0.4375</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>257</v>
@@ -5151,13 +5142,13 @@
     </row>
     <row r="154" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="2">
-        <v>44249.674062500002</v>
+        <v>44250.549166666664</v>
       </c>
       <c r="B154" s="3">
-        <v>44255</v>
+        <v>44253</v>
       </c>
       <c r="C154" s="4">
-        <v>0.45833333333333331</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>258</v>
@@ -5165,13 +5156,13 @@
     </row>
     <row r="155" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="2">
-        <v>44250.549166666664</v>
+        <v>44251.593206018515</v>
       </c>
       <c r="B155" s="3">
-        <v>44253</v>
+        <v>44254</v>
       </c>
       <c r="C155" s="4">
-        <v>0.39583333333333331</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>259</v>
@@ -5179,13 +5170,13 @@
     </row>
     <row r="156" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="2">
-        <v>44251.593206018515</v>
+        <v>44252.325833333336</v>
       </c>
       <c r="B156" s="3">
-        <v>44254</v>
+        <v>44255</v>
       </c>
       <c r="C156" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.375</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>260</v>
@@ -5193,13 +5184,13 @@
     </row>
     <row r="157" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="2">
-        <v>44252.325833333336</v>
+        <v>44252.367777777778</v>
       </c>
       <c r="B157" s="3">
-        <v>44255</v>
+        <v>44253</v>
       </c>
       <c r="C157" s="4">
-        <v>0.375</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>261</v>
@@ -5207,13 +5198,13 @@
     </row>
     <row r="158" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="2">
-        <v>44252.367777777778</v>
+        <v>44256.393506944441</v>
       </c>
       <c r="B158" s="3">
-        <v>44253</v>
+        <v>44272</v>
       </c>
       <c r="C158" s="4">
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>262</v>
@@ -5221,13 +5212,13 @@
     </row>
     <row r="159" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="2">
-        <v>44256.393506944441</v>
+        <v>44259.404502314814</v>
       </c>
       <c r="B159" s="3">
-        <v>44272</v>
+        <v>44262</v>
       </c>
       <c r="C159" s="4">
-        <v>0.58333333333333337</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>263</v>
@@ -5235,13 +5226,13 @@
     </row>
     <row r="160" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="2">
-        <v>44259.404502314814</v>
+        <v>44260.973113425927</v>
       </c>
       <c r="B160" s="3">
         <v>44262</v>
       </c>
       <c r="C160" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>264</v>
@@ -5249,13 +5240,13 @@
     </row>
     <row r="161" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="2">
-        <v>44260.973113425927</v>
+        <v>44262.703055555554</v>
       </c>
       <c r="B161" s="3">
-        <v>44262</v>
+        <v>44289</v>
       </c>
       <c r="C161" s="4">
-        <v>0.54166666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>265</v>
@@ -5263,67 +5254,73 @@
     </row>
     <row r="162" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="2">
-        <v>44262.703055555554</v>
+        <v>44264.290497685186</v>
       </c>
       <c r="B162" s="3">
-        <v>44289</v>
+        <v>44266</v>
       </c>
       <c r="C162" s="4">
-        <v>0.45833333333333331</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>266</v>
       </c>
+      <c r="E162" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="163" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="2">
-        <v>44264.290497685186</v>
+        <v>44266.813761574071</v>
       </c>
       <c r="B163" s="3">
-        <v>44266</v>
+        <v>44269</v>
       </c>
       <c r="C163" s="4">
-        <v>0.33333333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="2">
-        <v>44266.813761574071</v>
+        <v>44273.661979166667</v>
       </c>
       <c r="B164" s="3">
-        <v>44269</v>
+        <v>44275</v>
       </c>
       <c r="C164" s="4">
-        <v>0.41666666666666669</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="2">
-        <v>44273.661979166667</v>
+        <v>44281.90965277778</v>
       </c>
       <c r="B165" s="3">
-        <v>44275</v>
+        <v>44282</v>
       </c>
       <c r="C165" s="4">
-        <v>0.39583333333333331</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>272</v>
@@ -5332,52 +5329,52 @@
         <v>268</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="2">
-        <v>44281.90965277778</v>
+        <v>44284.283587962964</v>
       </c>
       <c r="B166" s="3">
-        <v>44282</v>
+        <v>44286</v>
       </c>
       <c r="C166" s="4">
-        <v>0.36458333333333331</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>273</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="2">
-        <v>44284.283587962964</v>
+        <v>44284.596307870372</v>
       </c>
       <c r="B167" s="3">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="C167" s="4">
-        <v>0.58333333333333337</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>274</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="2">
-        <v>44284.596307870372</v>
+        <v>44284.819386574076</v>
       </c>
       <c r="B168" s="3">
         <v>44287</v>
@@ -5389,1001 +5386,1001 @@
         <v>275</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="2">
-        <v>44284.819386574076</v>
+        <v>44284.961087962962</v>
       </c>
       <c r="B169" s="3">
         <v>44287</v>
       </c>
       <c r="C169" s="4">
-        <v>0.64583333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>276</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="2">
-        <v>44284.961087962962</v>
+        <v>44285.383958333332</v>
       </c>
       <c r="B170" s="3">
-        <v>44287</v>
+        <v>44290</v>
       </c>
       <c r="C170" s="4">
-        <v>0.6875</v>
+        <v>0.375</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>277</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="2">
-        <v>44285.383958333332</v>
+        <v>44285.503831018519</v>
       </c>
       <c r="B171" s="3">
-        <v>44290</v>
+        <v>44287</v>
       </c>
       <c r="C171" s="4">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>278</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="2">
-        <v>44285.503831018519</v>
+        <v>44287.492384259262</v>
       </c>
       <c r="B172" s="3">
-        <v>44287</v>
+        <v>44289</v>
       </c>
       <c r="C172" s="4">
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>279</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="2">
-        <v>44287.492384259262</v>
+        <v>44293.532685185186</v>
       </c>
       <c r="B173" s="3">
-        <v>44289</v>
+        <v>44294</v>
       </c>
       <c r="C173" s="4">
-        <v>0.54166666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>280</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="2">
-        <v>44293.532685185186</v>
+        <v>44303.786874999998</v>
       </c>
       <c r="B174" s="3">
-        <v>44294</v>
+        <v>44309</v>
       </c>
       <c r="C174" s="4">
-        <v>0.33333333333333331</v>
+        <v>0.66950231481481481</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="2">
-        <v>44303.786874999998</v>
+        <v>44304.696979166663</v>
       </c>
       <c r="B175" s="3">
-        <v>44309</v>
+        <v>44307</v>
       </c>
       <c r="C175" s="4">
-        <v>0.66950231481481481</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>282</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="2">
-        <v>44304.696979166663</v>
+        <v>44310.715439814812</v>
       </c>
       <c r="B176" s="3">
-        <v>44307</v>
+        <v>44312</v>
       </c>
       <c r="C176" s="4">
-        <v>0.60416666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>283</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="2">
-        <v>44310.715439814812</v>
+        <v>44311.420671296299</v>
       </c>
       <c r="B177" s="3">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="C177" s="4">
-        <v>0.375</v>
+        <v>0.60069444444444442</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>284</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="2">
-        <v>44311.420671296299</v>
+        <v>44312.699097222219</v>
       </c>
       <c r="B178" s="3">
-        <v>44313</v>
+        <v>44315</v>
       </c>
       <c r="C178" s="4">
-        <v>0.60069444444444442</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>285</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="2">
-        <v>44312.699097222219</v>
+        <v>44313.571979166663</v>
       </c>
       <c r="B179" s="3">
-        <v>44315</v>
+        <v>44317</v>
       </c>
       <c r="C179" s="4">
-        <v>0.33333333333333331</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>286</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="2">
-        <v>44313.571979166663</v>
+        <v>44314.517696759256</v>
       </c>
       <c r="B180" s="3">
         <v>44317</v>
       </c>
       <c r="C180" s="4">
-        <v>0.45833333333333331</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>287</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="2">
-        <v>44314.517696759256</v>
+        <v>44314.921712962961</v>
       </c>
       <c r="B181" s="3">
         <v>44317</v>
       </c>
       <c r="C181" s="4">
-        <v>0.33333333333333331</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>288</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="2">
-        <v>44314.921712962961</v>
+        <v>44316.362407407411</v>
       </c>
       <c r="B182" s="3">
-        <v>44317</v>
+        <v>44319</v>
       </c>
       <c r="C182" s="4">
-        <v>0.35416666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>289</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="2">
-        <v>44316.362407407411</v>
+        <v>44317.915370370371</v>
       </c>
       <c r="B183" s="3">
-        <v>44319</v>
+        <v>44320</v>
       </c>
       <c r="C183" s="4">
-        <v>0.5</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>290</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="2">
-        <v>44317.915370370371</v>
+        <v>44319.284328703703</v>
       </c>
       <c r="B184" s="3">
-        <v>44320</v>
+        <v>44321</v>
       </c>
       <c r="C184" s="4">
-        <v>0.41666666666666669</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>291</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="2">
-        <v>44319.284328703703</v>
+        <v>44322.540138888886</v>
       </c>
       <c r="B185" s="3">
-        <v>44321</v>
+        <v>44325</v>
       </c>
       <c r="C185" s="4">
-        <v>0.29166666666666669</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>292</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="2">
-        <v>44322.540138888886</v>
+        <v>44323.66479166667</v>
       </c>
       <c r="B186" s="3">
         <v>44325</v>
       </c>
       <c r="C186" s="4">
-        <v>0.39583333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>293</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="2">
-        <v>44323.66479166667</v>
+        <v>44324.584872685184</v>
       </c>
       <c r="B187" s="3">
-        <v>44325</v>
+        <v>44331</v>
       </c>
       <c r="C187" s="4">
-        <v>0.375</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>294</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="2">
-        <v>44324.584872685184</v>
+        <v>44326.398993055554</v>
       </c>
       <c r="B188" s="3">
-        <v>44331</v>
+        <v>44329</v>
       </c>
       <c r="C188" s="4">
-        <v>0.45833333333333331</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>295</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="2">
-        <v>44326.398993055554</v>
+        <v>44327.8359837963</v>
       </c>
       <c r="B189" s="3">
         <v>44329</v>
       </c>
       <c r="C189" s="4">
-        <v>0.33333333333333331</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>296</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A190" s="2">
-        <v>44327.8359837963</v>
+        <v>44334.85974537037</v>
       </c>
       <c r="B190" s="3">
-        <v>44329</v>
+        <v>35942</v>
       </c>
       <c r="C190" s="4">
-        <v>0.54166666666666663</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>297</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="2">
-        <v>44334.85974537037</v>
+        <v>44335.36309027778</v>
       </c>
       <c r="B191" s="3">
-        <v>35942</v>
+        <v>44361</v>
       </c>
       <c r="C191" s="4">
-        <v>0.47916666666666669</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>298</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="2">
-        <v>44335.36309027778</v>
+        <v>44335.46025462963</v>
       </c>
       <c r="B192" s="3">
-        <v>44361</v>
+        <v>35942</v>
       </c>
       <c r="C192" s="4">
-        <v>0.29166666666666669</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="2">
-        <v>44335.46025462963</v>
+        <v>44335.73064814815</v>
       </c>
       <c r="B193" s="3">
-        <v>35942</v>
+        <v>44338</v>
       </c>
       <c r="C193" s="4">
-        <v>0.47916666666666669</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A194" s="2">
-        <v>44335.73064814815</v>
+        <v>44336.578310185185</v>
       </c>
       <c r="B194" s="3">
         <v>44338</v>
       </c>
       <c r="C194" s="4">
-        <v>0.39583333333333331</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>300</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A195" s="2">
-        <v>44336.578310185185</v>
+        <v>44339.701805555553</v>
       </c>
       <c r="B195" s="3">
-        <v>44338</v>
+        <v>44342</v>
       </c>
       <c r="C195" s="4">
-        <v>0.60416666666666663</v>
+        <v>0.60069444444444442</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>301</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="2">
-        <v>44339.701805555553</v>
+        <v>44341.239108796297</v>
       </c>
       <c r="B196" s="3">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="C196" s="4">
-        <v>0.60069444444444442</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>302</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A197" s="2">
-        <v>44341.239108796297</v>
+        <v>44341.453113425923</v>
       </c>
       <c r="B197" s="3">
-        <v>44343</v>
+        <v>44345</v>
       </c>
       <c r="C197" s="4">
-        <v>0.29166666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>303</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A198" s="2">
-        <v>44341.453113425923</v>
+        <v>44346.617824074077</v>
       </c>
       <c r="B198" s="3">
-        <v>44345</v>
+        <v>44348</v>
       </c>
       <c r="C198" s="4">
-        <v>0.375</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>304</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" s="2">
-        <v>44346.617824074077</v>
+        <v>44347.50408564815</v>
       </c>
       <c r="B199" s="3">
-        <v>44348</v>
+        <v>44350</v>
       </c>
       <c r="C199" s="4">
-        <v>0.66666666666666663</v>
+        <v>0.40625</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>305</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A200" s="2">
-        <v>44347.50408564815</v>
+        <v>44347.993379629632</v>
       </c>
       <c r="B200" s="3">
         <v>44350</v>
       </c>
       <c r="C200" s="4">
-        <v>0.40625</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>306</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A201" s="2">
-        <v>44347.993379629632</v>
+        <v>44348.798101851855</v>
       </c>
       <c r="B201" s="3">
-        <v>44350</v>
+        <v>44352</v>
       </c>
       <c r="C201" s="4">
-        <v>0.72916666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>307</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A202" s="2">
-        <v>44348.798101851855</v>
+        <v>44349.653784722221</v>
       </c>
       <c r="B202" s="3">
         <v>44352</v>
       </c>
       <c r="C202" s="4">
-        <v>0.70833333333333337</v>
+        <v>0.375</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>308</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" s="2">
-        <v>44349.653784722221</v>
+        <v>44349.888703703706</v>
       </c>
       <c r="B203" s="3">
         <v>44352</v>
       </c>
       <c r="C203" s="4">
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A204" s="2">
-        <v>44349.888703703706</v>
+        <v>44354.608356481483</v>
       </c>
       <c r="B204" s="3">
-        <v>44352</v>
+        <v>44362</v>
       </c>
       <c r="C204" s="4">
-        <v>0.33333333333333331</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>310</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A205" s="2">
-        <v>44354.608356481483</v>
+        <v>44355.329606481479</v>
       </c>
       <c r="B205" s="3">
-        <v>44362</v>
+        <v>44359</v>
       </c>
       <c r="C205" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>311</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A206" s="2">
-        <v>44355.329606481479</v>
+        <v>44355.515844907408</v>
       </c>
       <c r="B206" s="3">
-        <v>44359</v>
+        <v>44357</v>
       </c>
       <c r="C206" s="4">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>312</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" s="2">
-        <v>44355.515844907408</v>
+        <v>44355.786863425928</v>
       </c>
       <c r="B207" s="3">
-        <v>44357</v>
+        <v>44364</v>
       </c>
       <c r="C207" s="4">
-        <v>0.29166666666666669</v>
+        <v>0.3125</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A208" s="2">
-        <v>44355.786863425928</v>
+        <v>44355.816377314812</v>
       </c>
       <c r="B208" s="3">
-        <v>44364</v>
+        <v>44359</v>
       </c>
       <c r="C208" s="4">
-        <v>0.3125</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>314</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A209" s="2">
-        <v>44355.816377314812</v>
+        <v>44356.039189814815</v>
       </c>
       <c r="B209" s="3">
-        <v>44359</v>
+        <v>44358</v>
       </c>
       <c r="C209" s="4">
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>315</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A210" s="2">
-        <v>44356.039189814815</v>
+        <v>44356.587453703702</v>
       </c>
       <c r="B210" s="3">
         <v>44358</v>
       </c>
       <c r="C210" s="4">
-        <v>0.41666666666666669</v>
+        <v>0.59375</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>316</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" s="2">
-        <v>44356.587453703702</v>
+        <v>44361.425567129627</v>
       </c>
       <c r="B211" s="3">
-        <v>44358</v>
+        <v>44364</v>
       </c>
       <c r="C211" s="4">
-        <v>0.59375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>317</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A212" s="2">
-        <v>44361.425567129627</v>
+        <v>44362.444953703707</v>
       </c>
       <c r="B212" s="3">
-        <v>44364</v>
+        <v>44387</v>
       </c>
       <c r="C212" s="4">
-        <v>0.39583333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>318</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" s="2">
-        <v>44362.444953703707</v>
+        <v>44362.461168981485</v>
       </c>
       <c r="B213" s="3">
-        <v>44387</v>
+        <v>44366</v>
       </c>
       <c r="C213" s="4">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>319</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" s="2">
-        <v>44362.461168981485</v>
+        <v>44362.681759259256</v>
       </c>
       <c r="B214" s="3">
-        <v>44366</v>
+        <v>44365</v>
       </c>
       <c r="C214" s="4">
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>320</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" s="2">
-        <v>44362.681759259256</v>
+        <v>44362.785891203705</v>
       </c>
       <c r="B215" s="3">
-        <v>44365</v>
+        <v>44366</v>
       </c>
       <c r="C215" s="4">
-        <v>0.33333333333333331</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>321</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" s="2">
-        <v>44362.785891203705</v>
+        <v>44363.930798611109</v>
       </c>
       <c r="B216" s="3">
         <v>44366</v>
       </c>
       <c r="C216" s="4">
-        <v>0.39583333333333331</v>
+        <v>0.40625</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>322</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" s="2">
-        <v>44363.930798611109</v>
+        <v>44364.370115740741</v>
       </c>
       <c r="B217" s="3">
         <v>44366</v>
       </c>
       <c r="C217" s="4">
-        <v>0.40625</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>323</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A218" s="2">
-        <v>44364.370115740741</v>
+        <v>44364.371377314812</v>
       </c>
       <c r="B218" s="3">
-        <v>44366</v>
+        <v>44367</v>
       </c>
       <c r="C218" s="4">
-        <v>0.45833333333333331</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>324</v>
@@ -6392,38 +6389,38 @@
         <v>268</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A219" s="2">
-        <v>44364.371377314812</v>
+        <v>44364.440694444442</v>
       </c>
       <c r="B219" s="3">
-        <v>44367</v>
+        <v>44368</v>
       </c>
       <c r="C219" s="4">
-        <v>0.47916666666666669</v>
+        <v>0.34375</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>325</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A220" s="2">
-        <v>44364.440694444442</v>
+        <v>44364.956944444442</v>
       </c>
       <c r="B220" s="3">
-        <v>44368</v>
+        <v>44366</v>
       </c>
       <c r="C220" s="4">
-        <v>0.34375</v>
+        <v>0.5</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>326</v>
@@ -6432,98 +6429,98 @@
         <v>268</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A221" s="2">
-        <v>44364.956944444442</v>
+        <v>44366.775266203702</v>
       </c>
       <c r="B221" s="3">
-        <v>44366</v>
+        <v>44369</v>
       </c>
       <c r="C221" s="4">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>327</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A222" s="2">
-        <v>44366.775266203702</v>
+        <v>44368.748217592591</v>
       </c>
       <c r="B222" s="3">
-        <v>44369</v>
+        <v>44373</v>
       </c>
       <c r="C222" s="4">
-        <v>0.66666666666666663</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>328</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A223" s="2">
-        <v>44368.748217592591</v>
+        <v>44370.738703703704</v>
       </c>
       <c r="B223" s="3">
         <v>44373</v>
       </c>
       <c r="C223" s="4">
-        <v>0.54166666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>329</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A224" s="2">
-        <v>44370.738703703704</v>
+        <v>44383.56490740741</v>
       </c>
       <c r="B224" s="3">
-        <v>44373</v>
+        <v>44386</v>
       </c>
       <c r="C224" s="4">
-        <v>0.41666666666666669</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A225" s="2">
-        <v>44383.56490740741</v>
+        <v>44385.586608796293</v>
       </c>
       <c r="B225" s="3">
-        <v>44386</v>
+        <v>44356</v>
       </c>
       <c r="C225" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>331</v>
@@ -6532,75 +6529,75 @@
         <v>268</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A226" s="2">
-        <v>44385.586608796293</v>
+        <v>44389.389097222222</v>
       </c>
       <c r="B226" s="3">
-        <v>44356</v>
+        <v>44392</v>
       </c>
       <c r="C226" s="4">
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>332</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A227" s="2">
-        <v>44389.389097222222</v>
+        <v>44390.594930555555</v>
       </c>
       <c r="B227" s="3">
         <v>44392</v>
       </c>
       <c r="C227" s="4">
-        <v>0.41666666666666669</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>333</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A228" s="2">
-        <v>44390.594930555555</v>
+        <v>44391.340289351851</v>
       </c>
       <c r="B228" s="3">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="C228" s="4">
-        <v>0.60416666666666663</v>
+        <v>0.4375</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>334</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A229" s="2">
-        <v>44391.340289351851</v>
+        <v>44392.530972222223</v>
       </c>
       <c r="B229" s="3">
-        <v>44393</v>
+        <v>44400</v>
       </c>
       <c r="C229" s="4">
         <v>0.4375</v>
@@ -6609,15 +6606,15 @@
         <v>335</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A230" s="2">
-        <v>44392.530972222223</v>
+        <v>44394.476342592592</v>
       </c>
       <c r="B230" s="3">
         <v>44400</v>
@@ -6629,101 +6626,101 @@
         <v>336</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A231" s="2">
-        <v>44394.476342592592</v>
+        <v>44397.449560185189</v>
       </c>
       <c r="B231" s="3">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="C231" s="4">
-        <v>0.4375</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>337</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A232" s="2">
-        <v>44397.449560185189</v>
+        <v>44397.959733796299</v>
       </c>
       <c r="B232" s="3">
-        <v>44399</v>
+        <v>44401</v>
       </c>
       <c r="C232" s="4">
-        <v>0.54166666666666663</v>
+        <v>0.5625</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>338</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A233" s="2">
-        <v>44397.959733796299</v>
+        <v>44399.617013888892</v>
       </c>
       <c r="B233" s="3">
         <v>44401</v>
       </c>
       <c r="C233" s="4">
-        <v>0.5625</v>
+        <v>0.43767361111111114</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>339</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A234" s="2">
-        <v>44399.617013888892</v>
+        <v>44401.770798611113</v>
       </c>
       <c r="B234" s="3">
-        <v>44401</v>
+        <v>44403</v>
       </c>
       <c r="C234" s="4">
-        <v>0.43767361111111114</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>340</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A235" s="2">
-        <v>44401.770798611113</v>
+        <v>44406.401898148149</v>
       </c>
       <c r="B235" s="3">
-        <v>44403</v>
+        <v>44408</v>
       </c>
       <c r="C235" s="4">
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>341</v>
@@ -6732,418 +6729,418 @@
         <v>268</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A236" s="2">
-        <v>44406.401898148149</v>
+        <v>44406.684849537036</v>
       </c>
       <c r="B236" s="3">
-        <v>44408</v>
+        <v>44409</v>
       </c>
       <c r="C236" s="4">
-        <v>0.5</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>342</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A237" s="2">
-        <v>44406.684849537036</v>
+        <v>44410.545069444444</v>
       </c>
       <c r="B237" s="3">
-        <v>44409</v>
+        <v>44429</v>
       </c>
       <c r="C237" s="4">
-        <v>0.29166666666666669</v>
+        <v>0.47984953703703703</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>343</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A238" s="2">
-        <v>44410.545069444444</v>
+        <v>44411.338425925926</v>
       </c>
       <c r="B238" s="3">
         <v>44429</v>
       </c>
       <c r="C238" s="4">
-        <v>0.47984953703703703</v>
+        <v>0.375</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>344</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A239" s="2">
-        <v>44411.338425925926</v>
+        <v>44411.674085648148</v>
       </c>
       <c r="B239" s="3">
-        <v>44429</v>
+        <v>44414</v>
       </c>
       <c r="C239" s="4">
-        <v>0.375</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>345</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A240" s="2">
-        <v>44411.674085648148</v>
+        <v>44411.956064814818</v>
       </c>
       <c r="B240" s="3">
-        <v>44414</v>
+        <v>44415</v>
       </c>
       <c r="C240" s="4">
-        <v>0.58333333333333337</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>346</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A241" s="2">
-        <v>44411.956064814818</v>
+        <v>44413.319918981484</v>
       </c>
       <c r="B241" s="3">
         <v>44415</v>
       </c>
       <c r="C241" s="4">
-        <v>0.51041666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>347</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A242" s="2">
-        <v>44413.319918981484</v>
+        <v>44417.658946759257</v>
       </c>
       <c r="B242" s="3">
-        <v>44415</v>
+        <v>44436</v>
       </c>
       <c r="C242" s="4">
-        <v>0.58333333333333337</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>348</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A243" s="2">
-        <v>44417.658946759257</v>
+        <v>44419.684386574074</v>
       </c>
       <c r="B243" s="3">
-        <v>44436</v>
+        <v>44421</v>
       </c>
       <c r="C243" s="4">
-        <v>0.39583333333333331</v>
+        <v>0.6875</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>349</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A244" s="2">
-        <v>44419.684386574074</v>
+        <v>44419.875416666669</v>
       </c>
       <c r="B244" s="3">
-        <v>44421</v>
+        <v>44429</v>
       </c>
       <c r="C244" s="4">
-        <v>0.6875</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>350</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A245" s="2">
-        <v>44419.875416666669</v>
+        <v>44421.63175925926</v>
       </c>
       <c r="B245" s="3">
-        <v>44429</v>
+        <v>44424</v>
       </c>
       <c r="C245" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.375</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>351</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A246" s="2">
-        <v>44421.63175925926</v>
+        <v>44426.593414351853</v>
       </c>
       <c r="B246" s="3">
-        <v>44424</v>
-      </c>
-      <c r="C246" s="4">
-        <v>0.375</v>
+        <v>44429</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A247" s="2">
-        <v>44426.593414351853</v>
+        <v>44427.043287037035</v>
       </c>
       <c r="B247" s="3">
-        <v>44429</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>353</v>
+        <v>44428</v>
+      </c>
+      <c r="C247" s="4">
+        <v>0.72916666666666663</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>354</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A248" s="2">
-        <v>44427.043287037035</v>
+        <v>44431.911134259259</v>
       </c>
       <c r="B248" s="3">
-        <v>44428</v>
+        <v>44434</v>
       </c>
       <c r="C248" s="4">
-        <v>0.72916666666666663</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>355</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A249" s="2">
-        <v>44431.911134259259</v>
+        <v>44433.817106481481</v>
       </c>
       <c r="B249" s="3">
-        <v>44434</v>
+        <v>44436</v>
       </c>
       <c r="C249" s="4">
-        <v>0.79166666666666663</v>
+        <v>0.5625</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>356</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A250" s="2">
-        <v>44433.817106481481</v>
+        <v>44436.013124999998</v>
       </c>
       <c r="B250" s="3">
-        <v>44436</v>
+        <v>44438</v>
       </c>
       <c r="C250" s="4">
-        <v>0.5625</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>357</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A251" s="2">
-        <v>44436.013124999998</v>
+        <v>44447.549259259256</v>
       </c>
       <c r="B251" s="3">
-        <v>44438</v>
+        <v>44450</v>
       </c>
       <c r="C251" s="4">
-        <v>0.67708333333333337</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>358</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A252" s="2">
-        <v>44447.549259259256</v>
+        <v>44448.475046296298</v>
       </c>
       <c r="B252" s="3">
         <v>44450</v>
       </c>
       <c r="C252" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.4375</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>359</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A253" s="2">
-        <v>44448.475046296298</v>
+        <v>44448.541898148149</v>
       </c>
       <c r="B253" s="3">
         <v>44450</v>
       </c>
       <c r="C253" s="4">
-        <v>0.4375</v>
+        <v>0.5</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>360</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A254" s="2">
-        <v>44448.541898148149</v>
+        <v>44455.461365740739</v>
       </c>
       <c r="B254" s="3">
-        <v>44450</v>
+        <v>44458</v>
       </c>
       <c r="C254" s="4">
-        <v>0.5</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>361</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A255" s="2">
-        <v>44455.461365740739</v>
+        <v>44456.512314814812</v>
       </c>
       <c r="B255" s="3">
-        <v>44458</v>
+        <v>44459</v>
       </c>
       <c r="C255" s="4">
-        <v>0.39583333333333331</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>362</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A256" s="2">
-        <v>44456.512314814812</v>
+        <v>44459.369155092594</v>
       </c>
       <c r="B256" s="3">
-        <v>44459</v>
+        <v>44461</v>
       </c>
       <c r="C256" s="4">
-        <v>0.36458333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>363</v>
@@ -7152,252 +7149,252 @@
         <v>268</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A257" s="2">
-        <v>44459.369155092594</v>
+        <v>44461.25854166667</v>
       </c>
       <c r="B257" s="3">
-        <v>44461</v>
+        <v>44464</v>
       </c>
       <c r="C257" s="4">
-        <v>0.29166666666666669</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>364</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A258" s="2">
-        <v>44461.25854166667</v>
+        <v>44464.54954861111</v>
       </c>
       <c r="B258" s="3">
-        <v>44464</v>
+        <v>44501</v>
       </c>
       <c r="C258" s="4">
-        <v>0.39583333333333331</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>365</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A259" s="2">
-        <v>44464.54954861111</v>
+        <v>44465.785509259258</v>
       </c>
       <c r="B259" s="3">
-        <v>44501</v>
+        <v>44467</v>
       </c>
       <c r="C259" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A260" s="2">
-        <v>44465.785509259258</v>
+        <v>44467.47960648148</v>
       </c>
       <c r="B260" s="3">
-        <v>44467</v>
+        <v>44471</v>
       </c>
       <c r="C260" s="4">
-        <v>0.50694444444444442</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>367</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A261" s="2">
-        <v>44467.47960648148</v>
+        <v>44468.660312499997</v>
       </c>
       <c r="B261" s="3">
-        <v>44471</v>
+        <v>44470</v>
       </c>
       <c r="C261" s="4">
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>368</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A262" s="2">
-        <v>44468.660312499997</v>
+        <v>44468.794016203705</v>
       </c>
       <c r="B262" s="3">
         <v>44470</v>
       </c>
       <c r="C262" s="4">
-        <v>0.66666666666666663</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>369</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A263" s="2">
-        <v>44468.794016203705</v>
+        <v>44471.94599537037</v>
       </c>
       <c r="B263" s="3">
-        <v>44470</v>
+        <v>44473</v>
       </c>
       <c r="C263" s="4">
-        <v>0.29166666666666669</v>
+        <v>0.4375</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>370</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A264" s="2">
-        <v>44471.94599537037</v>
+        <v>44476.387187499997</v>
       </c>
       <c r="B264" s="3">
-        <v>44473</v>
+        <v>44236</v>
       </c>
       <c r="C264" s="4">
-        <v>0.4375</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>371</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A265" s="2">
-        <v>44476.387187499997</v>
+        <v>44476.406261574077</v>
       </c>
       <c r="B265" s="3">
-        <v>44236</v>
+        <v>44478</v>
       </c>
       <c r="C265" s="4">
-        <v>0.58333333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>372</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A266" s="2">
-        <v>44476.406261574077</v>
+        <v>44476.458611111113</v>
       </c>
       <c r="B266" s="3">
         <v>44478</v>
       </c>
       <c r="C266" s="4">
-        <v>0.625</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>373</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A267" s="2">
-        <v>44476.458611111113</v>
+        <v>44476.828055555554</v>
       </c>
       <c r="B267" s="3">
         <v>44478</v>
       </c>
       <c r="C267" s="4">
-        <v>0.70833333333333337</v>
+        <v>0.46927083333333336</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>374</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A268" s="2">
-        <v>44476.828055555554</v>
+        <v>44477.302523148152</v>
       </c>
       <c r="B268" s="3">
-        <v>44478</v>
+        <v>44479</v>
       </c>
       <c r="C268" s="4">
-        <v>0.46927083333333336</v>
+        <v>0.5</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>375</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A269" s="2">
-        <v>44477.302523148152</v>
+        <v>44477.610462962963</v>
       </c>
       <c r="B269" s="3">
         <v>44479</v>
@@ -7409,101 +7406,101 @@
         <v>376</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A270" s="2">
-        <v>44477.610462962963</v>
+      <c r="A270" s="6">
+        <v>44482.312939814816</v>
       </c>
       <c r="B270" s="3">
-        <v>44479</v>
+        <v>44484</v>
       </c>
       <c r="C270" s="4">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>377</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A271" s="6">
-        <v>44482.312939814816</v>
+        <v>44487.944039351853</v>
       </c>
       <c r="B271" s="3">
-        <v>44484</v>
+        <v>44491</v>
       </c>
       <c r="C271" s="4">
-        <v>0.4375</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>378</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A272" s="6">
-        <v>44487.944039351853</v>
+        <v>44489.022418981483</v>
       </c>
       <c r="B272" s="3">
-        <v>44491</v>
+        <v>44492</v>
       </c>
       <c r="C272" s="4">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>379</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A273" s="6">
-        <v>44489.022418981483</v>
+        <v>44490.717326388891</v>
       </c>
       <c r="B273" s="3">
-        <v>44492</v>
+        <v>44498</v>
       </c>
       <c r="C273" s="4">
-        <v>0.41666666666666669</v>
+        <v>0.625</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>380</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A274" s="6">
-        <v>44490.717326388891</v>
+        <v>44496.60800925926</v>
       </c>
       <c r="B274" s="3">
-        <v>44498</v>
+        <v>44497</v>
       </c>
       <c r="C274" s="4">
-        <v>0.625</v>
+        <v>0.3125</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>381</v>
@@ -7512,75 +7509,75 @@
         <v>268</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A275" s="6">
-        <v>44496.60800925926</v>
+      <c r="A275" s="2">
+        <v>44504.371574074074</v>
       </c>
       <c r="B275" s="3">
-        <v>44497</v>
+        <v>44505</v>
       </c>
       <c r="C275" s="4">
-        <v>0.3125</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>382</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A276" s="2">
-        <v>44504.371574074074</v>
+        <v>44508.567974537036</v>
       </c>
       <c r="B276" s="3">
-        <v>44505</v>
+        <v>44510</v>
       </c>
       <c r="C276" s="4">
-        <v>0.29166666666666669</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>383</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A277" s="2">
-        <v>44508.567974537036</v>
+      <c r="A277" s="6">
+        <v>44511.019050925926</v>
       </c>
       <c r="B277" s="3">
-        <v>44510</v>
+        <v>44513</v>
       </c>
       <c r="C277" s="4">
-        <v>0.51041666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>384</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A278" s="6">
-        <v>44511.019050925926</v>
+        <v>44517.490925925929</v>
       </c>
       <c r="B278" s="3">
-        <v>44513</v>
+        <v>44520</v>
       </c>
       <c r="C278" s="4">
         <v>0.41666666666666669</v>
@@ -7589,41 +7586,41 @@
         <v>385</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A279" s="6">
-        <v>44517.490925925929</v>
+        <v>44520.653009259258</v>
       </c>
       <c r="B279" s="3">
-        <v>44520</v>
+        <v>44528</v>
       </c>
       <c r="C279" s="4">
-        <v>0.41666666666666669</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>386</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A280" s="6">
-        <v>44520.653009259258</v>
+        <v>44522.422951388886</v>
       </c>
       <c r="B280" s="3">
-        <v>44528</v>
+        <v>44527</v>
       </c>
       <c r="C280" s="4">
-        <v>0.47916666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>387</v>
@@ -7632,95 +7629,95 @@
         <v>268</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A281" s="6">
-        <v>44522.422951388886</v>
+        <v>44524.718946759262</v>
       </c>
       <c r="B281" s="3">
         <v>44527</v>
       </c>
       <c r="C281" s="4">
-        <v>0.375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>388</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A282" s="6">
-        <v>44524.718946759262</v>
+        <v>44526.487743055557</v>
       </c>
       <c r="B282" s="3">
-        <v>44527</v>
+        <v>44528</v>
       </c>
       <c r="C282" s="4">
-        <v>0.41666666666666669</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>389</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A283" s="6">
-        <v>44526.487743055557</v>
+        <v>44530.725844907407</v>
       </c>
       <c r="B283" s="3">
-        <v>44528</v>
+        <v>44533</v>
       </c>
       <c r="C283" s="4">
-        <v>0.54166666666666663</v>
+        <v>0.4375</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>390</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A284" s="6">
-        <v>44530.725844907407</v>
+      <c r="A284" s="2">
+        <v>44532.591284722221</v>
       </c>
       <c r="B284" s="3">
-        <v>44533</v>
+        <v>44534</v>
       </c>
       <c r="C284" s="4">
-        <v>0.4375</v>
+        <v>0.375</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>391</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A285" s="2">
-        <v>44532.591284722221</v>
+        <v>44535.389189814814</v>
       </c>
       <c r="B285" s="3">
-        <v>44534</v>
+        <v>44540</v>
       </c>
       <c r="C285" s="4">
         <v>0.375</v>
@@ -7729,18 +7726,18 @@
         <v>392</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A286" s="2">
-        <v>44535.389189814814</v>
+        <v>44536.683148148149</v>
       </c>
       <c r="B286" s="3">
-        <v>44540</v>
+        <v>44541</v>
       </c>
       <c r="C286" s="4">
         <v>0.375</v>
@@ -7749,161 +7746,161 @@
         <v>393</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A287" s="2">
-        <v>44536.683148148149</v>
+        <v>44536.907407407409</v>
       </c>
       <c r="B287" s="3">
-        <v>44541</v>
+        <v>44547</v>
       </c>
       <c r="C287" s="4">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>394</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A288" s="2">
-        <v>44536.907407407409</v>
+        <v>44538.631631944445</v>
       </c>
       <c r="B288" s="3">
-        <v>44547</v>
+        <v>44542</v>
       </c>
       <c r="C288" s="4">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>395</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A289" s="2">
-        <v>44538.631631944445</v>
+        <v>44538.633958333332</v>
       </c>
       <c r="B289" s="3">
-        <v>44542</v>
+        <v>44541</v>
       </c>
       <c r="C289" s="4">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>396</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A290" s="2">
-        <v>44538.633958333332</v>
+      <c r="A290" s="6">
+        <v>44542.906956018516</v>
       </c>
       <c r="B290" s="3">
-        <v>44541</v>
+        <v>44549</v>
       </c>
       <c r="C290" s="4">
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>397</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A291" s="6">
-        <v>44542.906956018516</v>
+        <v>44544.018483796295</v>
       </c>
       <c r="B291" s="3">
-        <v>44549</v>
+        <v>44911</v>
       </c>
       <c r="C291" s="4">
-        <v>0.58333333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>398</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A292" s="6">
-        <v>44544.018483796295</v>
+        <v>44546.219340277778</v>
       </c>
       <c r="B292" s="3">
-        <v>44911</v>
+        <v>44550</v>
       </c>
       <c r="C292" s="4">
-        <v>0.45833333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>399</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A293" s="6">
-        <v>44546.219340277778</v>
+        <v>44546.411909722221</v>
       </c>
       <c r="B293" s="3">
-        <v>44550</v>
+        <v>44548</v>
       </c>
       <c r="C293" s="4">
-        <v>0.4375</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>400</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A294" s="6">
-        <v>44546.411909722221</v>
+        <v>44546.436956018515</v>
       </c>
       <c r="B294" s="3">
-        <v>44548</v>
+        <v>44549</v>
       </c>
       <c r="C294" s="4">
-        <v>0.47916666666666669</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>401</v>
@@ -7912,75 +7909,75 @@
         <v>268</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A295" s="6">
-        <v>44546.436956018515</v>
+        <v>44550.899988425925</v>
       </c>
       <c r="B295" s="3">
-        <v>44549</v>
+        <v>44554</v>
       </c>
       <c r="C295" s="4">
-        <v>0.41666666666666669</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>402</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A296" s="6">
-        <v>44550.899988425925</v>
+        <v>44550.953518518516</v>
       </c>
       <c r="B296" s="3">
-        <v>44554</v>
-      </c>
-      <c r="C296" s="4">
-        <v>0.35416666666666669</v>
+        <v>44553</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>403</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="297" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A297" s="6">
-        <v>44550.953518518516</v>
+        <v>44550.970393518517</v>
       </c>
       <c r="B297" s="3">
-        <v>44553</v>
-      </c>
-      <c r="C297" s="1" t="s">
-        <v>404</v>
+        <v>44554</v>
+      </c>
+      <c r="C297" s="4">
+        <v>0.45833333333333331</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>405</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A298" s="6">
-        <v>44550.970393518517</v>
+        <v>44551.609942129631</v>
       </c>
       <c r="B298" s="3">
-        <v>44554</v>
+        <v>44557</v>
       </c>
       <c r="C298" s="4">
         <v>0.45833333333333331</v>
@@ -7989,21 +7986,21 @@
         <v>406</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A299" s="6">
-        <v>44551.609942129631</v>
+        <v>44551.671875</v>
       </c>
       <c r="B299" s="3">
-        <v>44557</v>
+        <v>44554</v>
       </c>
       <c r="C299" s="4">
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>407</v>
@@ -8012,15 +8009,15 @@
         <v>268</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A300" s="6">
-        <v>44551.671875</v>
+        <v>44559.498553240737</v>
       </c>
       <c r="B300" s="3">
-        <v>44554</v>
+        <v>44561</v>
       </c>
       <c r="C300" s="4">
         <v>0.41666666666666669</v>
@@ -8029,215 +8026,215 @@
         <v>408</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A301" s="6">
-        <v>44559.498553240737</v>
+        <v>44559.820115740738</v>
       </c>
       <c r="B301" s="3">
-        <v>44561</v>
+        <v>44562</v>
       </c>
       <c r="C301" s="4">
-        <v>0.41666666666666669</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>409</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A302" s="6">
-        <v>44559.820115740738</v>
+      <c r="A302" s="2">
+        <v>44566.493020833332</v>
       </c>
       <c r="B302" s="3">
-        <v>44562</v>
+        <v>44569</v>
       </c>
       <c r="C302" s="4">
-        <v>0.29166666666666669</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D302" s="1" t="s">
         <v>410</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A303" s="2">
-        <v>44566.493020833332</v>
+        <v>44570.635625000003</v>
       </c>
       <c r="B303" s="3">
-        <v>44569</v>
+        <v>44209</v>
       </c>
       <c r="C303" s="4">
-        <v>0.39583333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>411</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A304" s="2">
-        <v>44570.635625000003</v>
+        <v>44591.827349537038</v>
       </c>
       <c r="B304" s="3">
-        <v>44209</v>
+        <v>44597</v>
       </c>
       <c r="C304" s="4">
-        <v>0.29166666666666669</v>
+        <v>0.4375</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>412</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="305" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A305" s="2">
-        <v>44591.827349537038</v>
+        <v>44595.601585648146</v>
       </c>
       <c r="B305" s="3">
         <v>44597</v>
       </c>
       <c r="C305" s="4">
-        <v>0.4375</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="D305" s="1" t="s">
         <v>413</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A306" s="2">
-        <v>44595.601585648146</v>
+        <v>44595.713726851849</v>
       </c>
       <c r="B306" s="3">
         <v>44597</v>
       </c>
       <c r="C306" s="4">
-        <v>0.38541666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>414</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="307" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A307" s="2">
-        <v>44595.713726851849</v>
+        <v>44595.916643518518</v>
       </c>
       <c r="B307" s="3">
         <v>44597</v>
       </c>
       <c r="C307" s="4">
-        <v>0.33333333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>415</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A308" s="2">
-        <v>44595.916643518518</v>
+        <v>44601.371898148151</v>
       </c>
       <c r="B308" s="3">
-        <v>44597</v>
+        <v>44604</v>
       </c>
       <c r="C308" s="4">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>416</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A309" s="2">
-        <v>44601.371898148151</v>
+        <v>44601.530162037037</v>
       </c>
       <c r="B309" s="3">
-        <v>44604</v>
+        <v>44238</v>
       </c>
       <c r="C309" s="4">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>417</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="310" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A310" s="2">
-        <v>44601.530162037037</v>
+        <v>44603.687743055554</v>
       </c>
       <c r="B310" s="3">
-        <v>44238</v>
+        <v>44606</v>
       </c>
       <c r="C310" s="4">
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>418</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="311" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A311" s="2">
-        <v>44603.687743055554</v>
+        <v>44604.317986111113</v>
       </c>
       <c r="B311" s="3">
         <v>44606</v>
@@ -8249,61 +8246,61 @@
         <v>419</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="312" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A312" s="2">
-        <v>44604.317986111113</v>
+        <v>44604.584398148145</v>
       </c>
       <c r="B312" s="3">
         <v>44606</v>
       </c>
       <c r="C312" s="4">
-        <v>0.625</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>420</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A313" s="2">
-        <v>44604.584398148145</v>
+        <v>44604.896111111113</v>
       </c>
       <c r="B313" s="3">
         <v>44606</v>
       </c>
       <c r="C313" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>421</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A314" s="2">
-        <v>44604.896111111113</v>
+        <v>44604.89702546296</v>
       </c>
       <c r="B314" s="3">
         <v>44606</v>
       </c>
       <c r="C314" s="4">
-        <v>0.58333333333333337</v>
+        <v>0.375</v>
       </c>
       <c r="D314" s="1" t="s">
         <v>422</v>
@@ -8312,138 +8309,138 @@
         <v>268</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="315" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A315" s="2">
-        <v>44604.89702546296</v>
+        <v>44606.776921296296</v>
       </c>
       <c r="B315" s="3">
-        <v>44606</v>
+        <v>44611</v>
       </c>
       <c r="C315" s="4">
-        <v>0.375</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D315" s="1" t="s">
         <v>423</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A316" s="2">
-        <v>44606.776921296296</v>
+        <v>44607.808356481481</v>
       </c>
       <c r="B316" s="3">
-        <v>44611</v>
+        <v>44610</v>
       </c>
       <c r="C316" s="4">
-        <v>0.54166666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D316" s="1" t="s">
         <v>424</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="317" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A317" s="2">
-        <v>44607.808356481481</v>
+        <v>44609.475891203707</v>
       </c>
       <c r="B317" s="3">
-        <v>44610</v>
+        <v>44619</v>
       </c>
       <c r="C317" s="4">
-        <v>0.45833333333333331</v>
+        <v>0.54167824074074078</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>425</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A318" s="2">
-        <v>44609.475891203707</v>
+        <v>44630.054050925923</v>
       </c>
       <c r="B318" s="3">
-        <v>44619</v>
+        <v>44633</v>
       </c>
       <c r="C318" s="4">
-        <v>0.54167824074074078</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D318" s="1" t="s">
         <v>426</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="319" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A319" s="2">
-        <v>44630.054050925923</v>
+        <v>44630.859629629631</v>
       </c>
       <c r="B319" s="3">
-        <v>44633</v>
+        <v>44638</v>
       </c>
       <c r="C319" s="4">
-        <v>0.58333333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D319" s="1" t="s">
         <v>427</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A320" s="2">
-        <v>44630.859629629631</v>
+        <v>44632.378587962965</v>
       </c>
       <c r="B320" s="3">
-        <v>44638</v>
+        <v>44641</v>
       </c>
       <c r="C320" s="4">
-        <v>0.41666666666666669</v>
+        <v>0.3125</v>
       </c>
       <c r="D320" s="1" t="s">
         <v>428</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="321" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A321" s="2">
-        <v>44632.378587962965</v>
+        <v>44636.445763888885</v>
       </c>
       <c r="B321" s="3">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="C321" s="4">
-        <v>0.3125</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>429</v>
@@ -8452,12 +8449,12 @@
         <v>268</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="322" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A322" s="2">
-        <v>44636.445763888885</v>
+        <v>44636.458136574074</v>
       </c>
       <c r="B322" s="3">
         <v>44642</v>
@@ -8469,55 +8466,55 @@
         <v>430</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="323" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A323" s="2">
-        <v>44636.458136574074</v>
+        <v>44636.591828703706</v>
       </c>
       <c r="B323" s="3">
-        <v>44642</v>
+        <v>44639</v>
       </c>
       <c r="C323" s="4">
-        <v>0.45833333333333331</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D323" s="1" t="s">
         <v>431</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="324" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A324" s="2">
-        <v>44636.591828703706</v>
+        <v>44644.708553240744</v>
       </c>
       <c r="B324" s="3">
-        <v>44639</v>
+        <v>44646</v>
       </c>
       <c r="C324" s="4">
-        <v>0.54166666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>432</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="325" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A325" s="2">
-        <v>44644.708553240744</v>
+        <v>44644.792800925927</v>
       </c>
       <c r="B325" s="3">
         <v>44646</v>
@@ -8526,384 +8523,384 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="326" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A326" s="2">
-        <v>44644.792800925927</v>
+        <v>44646.674814814818</v>
       </c>
       <c r="B326" s="3">
-        <v>44646</v>
+        <v>44652</v>
       </c>
       <c r="C326" s="4">
-        <v>0.41666666666666669</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>433</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="327" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A327" s="2">
-        <v>44646.674814814818</v>
+        <v>44648.657604166663</v>
       </c>
       <c r="B327" s="3">
-        <v>44652</v>
+        <v>44650</v>
       </c>
       <c r="C327" s="4">
-        <v>0.29166666666666669</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>434</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="328" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A328" s="2">
-        <v>44648.657604166663</v>
+        <v>44650.663182870368</v>
       </c>
       <c r="B328" s="3">
-        <v>44650</v>
+        <v>44656</v>
       </c>
       <c r="C328" s="4">
-        <v>0.73958333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D328" s="1" t="s">
         <v>435</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="329" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A329" s="2">
-        <v>44650.663182870368</v>
+        <v>44656.503564814811</v>
       </c>
       <c r="B329" s="3">
-        <v>44656</v>
+        <v>44658</v>
       </c>
       <c r="C329" s="4">
-        <v>0.45833333333333331</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D329" s="1" t="s">
         <v>436</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="330" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A330" s="2">
-        <v>44656.503564814811</v>
+        <v>44656.926215277781</v>
       </c>
       <c r="B330" s="3">
-        <v>44658</v>
+        <v>44660</v>
       </c>
       <c r="C330" s="4">
-        <v>0.72916666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D330" s="1" t="s">
         <v>437</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="331" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A331" s="2">
-        <v>44656.926215277781</v>
+        <v>44658.409918981481</v>
       </c>
       <c r="B331" s="3">
-        <v>44660</v>
+        <v>44666</v>
       </c>
       <c r="C331" s="4">
-        <v>0.41666666666666669</v>
+        <v>0.2986226851851852</v>
       </c>
       <c r="D331" s="1" t="s">
         <v>438</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="332" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A332" s="2">
-        <v>44658.409918981481</v>
+        <v>44661.020057870373</v>
       </c>
       <c r="B332" s="3">
         <v>44666</v>
       </c>
       <c r="C332" s="4">
-        <v>0.2986226851851852</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D332" s="1" t="s">
         <v>439</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="333" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A333" s="2">
-        <v>44661.020057870373</v>
+        <v>44661.479513888888</v>
       </c>
       <c r="B333" s="3">
-        <v>44666</v>
+        <v>44907</v>
       </c>
       <c r="C333" s="4">
-        <v>0.41666666666666669</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D333" s="1" t="s">
         <v>440</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="334" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A334" s="2">
-        <v>44661.479513888888</v>
+        <v>44662.834768518522</v>
       </c>
       <c r="B334" s="3">
-        <v>44907</v>
+        <v>44667</v>
       </c>
       <c r="C334" s="4">
-        <v>0.58333333333333337</v>
+        <v>0.375</v>
       </c>
       <c r="D334" s="1" t="s">
         <v>441</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="335" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A335" s="2">
-        <v>44662.834768518522</v>
+        <v>44663.359259259261</v>
       </c>
       <c r="B335" s="3">
         <v>44667</v>
       </c>
       <c r="C335" s="4">
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D335" s="1" t="s">
         <v>442</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="336" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A336" s="2">
-        <v>44663.359259259261</v>
+        <v>44665.348495370374</v>
       </c>
       <c r="B336" s="3">
-        <v>44667</v>
+        <v>44668</v>
       </c>
       <c r="C336" s="4">
-        <v>0.33333333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="337" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A337" s="2">
-        <v>44665.348495370374</v>
+        <v>44670.385798611111</v>
       </c>
       <c r="B337" s="3">
-        <v>44668</v>
+        <v>44672</v>
       </c>
       <c r="C337" s="4">
         <v>0.375</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>444</v>
+        <v>362</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="338" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A338" s="2">
-        <v>44670.385798611111</v>
+        <v>44670.682650462964</v>
       </c>
       <c r="B338" s="3">
-        <v>44672</v>
+        <v>44673</v>
       </c>
       <c r="C338" s="4">
-        <v>0.375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>363</v>
+        <v>444</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="339" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A339" s="2">
-        <v>44670.682650462964</v>
+        <v>44676.766458333332</v>
       </c>
       <c r="B339" s="3">
-        <v>44673</v>
+        <v>44680</v>
       </c>
       <c r="C339" s="4">
-        <v>0.41666666666666669</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="D339" s="1" t="s">
         <v>445</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="340" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A340" s="2">
-        <v>44676.766458333332</v>
+        <v>44676.840057870373</v>
       </c>
       <c r="B340" s="3">
-        <v>44680</v>
+        <v>44688</v>
       </c>
       <c r="C340" s="4">
-        <v>0.29166666666666669</v>
+        <v>0.4375</v>
       </c>
       <c r="D340" s="1" t="s">
         <v>446</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="341" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A341" s="2">
-        <v>44676.840057870373</v>
+        <v>44677.802928240744</v>
       </c>
       <c r="B341" s="3">
-        <v>44688</v>
+        <v>44680</v>
       </c>
       <c r="C341" s="4">
-        <v>0.4375</v>
+        <v>0.75</v>
       </c>
       <c r="D341" s="1" t="s">
         <v>447</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="342" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A342" s="2">
-        <v>44677.802928240744</v>
+        <v>44687.385578703703</v>
       </c>
       <c r="B342" s="3">
-        <v>44680</v>
+        <v>44691</v>
       </c>
       <c r="C342" s="4">
-        <v>0.75</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>448</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F342" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="343" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A343" s="2">
-        <v>44687.385578703703</v>
+        <v>44698.599907407406</v>
       </c>
       <c r="B343" s="3">
-        <v>44691</v>
+        <v>44700</v>
       </c>
       <c r="C343" s="4">
-        <v>0.58333333333333337</v>
+        <v>0.375</v>
       </c>
       <c r="D343" s="1" t="s">
         <v>449</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="344" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A344" s="2">
-        <v>44698.599907407406</v>
+        <v>44699.79247685185</v>
       </c>
       <c r="B344" s="3">
-        <v>44700</v>
+        <v>44702</v>
       </c>
       <c r="C344" s="4">
-        <v>0.375</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D344" s="1" t="s">
         <v>450</v>
@@ -8912,198 +8909,198 @@
         <v>268</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="345" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A345" s="2">
-        <v>44699.79247685185</v>
+        <v>44700.3122337963</v>
       </c>
       <c r="B345" s="3">
-        <v>44702</v>
+        <v>31188</v>
       </c>
       <c r="C345" s="4">
-        <v>0.54166666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>451</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="346" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A346" s="2">
-        <v>44700.3122337963</v>
+        <v>44701.313506944447</v>
       </c>
       <c r="B346" s="3">
-        <v>31188</v>
+        <v>44703</v>
       </c>
       <c r="C346" s="4">
-        <v>0.45833333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="D346" s="1" t="s">
         <v>452</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="347" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A347" s="2">
-        <v>44701.313506944447</v>
+        <v>44706.528495370374</v>
       </c>
       <c r="B347" s="3">
-        <v>44703</v>
+        <v>44709</v>
       </c>
       <c r="C347" s="4">
-        <v>0.375</v>
+        <v>0.41737268518518517</v>
       </c>
       <c r="D347" s="1" t="s">
         <v>453</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="348" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A348" s="2">
-        <v>44706.528495370374</v>
+        <v>44712.700324074074</v>
       </c>
       <c r="B348" s="3">
-        <v>44709</v>
+        <v>44714</v>
       </c>
       <c r="C348" s="4">
-        <v>0.41737268518518517</v>
+        <v>0.71875</v>
       </c>
       <c r="D348" s="1" t="s">
         <v>454</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="349" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A349" s="2">
-        <v>44712.700324074074</v>
+        <v>44717.488379629627</v>
       </c>
       <c r="B349" s="3">
-        <v>44714</v>
+        <v>44772</v>
       </c>
       <c r="C349" s="4">
-        <v>0.71875</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D349" s="1" t="s">
         <v>455</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="350" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A350" s="2">
-        <v>44717.488379629627</v>
+        <v>44719.46665509259</v>
       </c>
       <c r="B350" s="3">
-        <v>44772</v>
+        <v>44723</v>
       </c>
       <c r="C350" s="4">
-        <v>0.33333333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="D350" s="1" t="s">
         <v>456</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="351" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A351" s="2">
-        <v>44719.46665509259</v>
+        <v>44719.54315972222</v>
       </c>
       <c r="B351" s="3">
         <v>44723</v>
       </c>
       <c r="C351" s="4">
-        <v>0.375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D351" s="1" t="s">
         <v>457</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="352" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A352" s="2">
-        <v>44719.54315972222</v>
+        <v>44720.591469907406</v>
       </c>
       <c r="B352" s="3">
-        <v>44723</v>
+        <v>44737</v>
       </c>
       <c r="C352" s="4">
-        <v>0.39583333333333331</v>
+        <v>0.3125</v>
       </c>
       <c r="D352" s="1" t="s">
         <v>458</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="353" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A353" s="2">
-        <v>44720.591469907406</v>
+        <v>44732.922372685185</v>
       </c>
       <c r="B353" s="3">
-        <v>44737</v>
+        <v>44735</v>
       </c>
       <c r="C353" s="4">
-        <v>0.3125</v>
+        <v>0.6875</v>
       </c>
       <c r="D353" s="1" t="s">
         <v>459</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="354" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A354" s="2">
-        <v>44732.922372685185</v>
+        <v>44733.403738425928</v>
       </c>
       <c r="B354" s="3">
-        <v>44735</v>
+        <v>44734</v>
       </c>
       <c r="C354" s="4">
-        <v>0.6875</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D354" s="1" t="s">
         <v>460</v>
@@ -9112,358 +9109,358 @@
         <v>268</v>
       </c>
       <c r="F354" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="355" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A355" s="2">
-        <v>44733.403738425928</v>
+        <v>44734.655543981484</v>
       </c>
       <c r="B355" s="3">
-        <v>44734</v>
+        <v>44737</v>
       </c>
       <c r="C355" s="4">
-        <v>0.45833333333333331</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D355" s="1" t="s">
         <v>461</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="356" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A356" s="2">
-        <v>44734.655543981484</v>
+        <v>44737.220555555556</v>
       </c>
       <c r="B356" s="3">
-        <v>44737</v>
+        <v>44739</v>
       </c>
       <c r="C356" s="4">
-        <v>0.58333333333333337</v>
+        <v>0.3125</v>
       </c>
       <c r="D356" s="1" t="s">
         <v>462</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="357" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A357" s="2">
-        <v>44737.220555555556</v>
+        <v>44739.791689814818</v>
       </c>
       <c r="B357" s="3">
-        <v>44739</v>
+        <v>44742</v>
       </c>
       <c r="C357" s="4">
-        <v>0.3125</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D357" s="1" t="s">
         <v>463</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="358" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A358" s="2">
-        <v>44739.791689814818</v>
+        <v>44740.316631944443</v>
       </c>
       <c r="B358" s="3">
         <v>44742</v>
       </c>
       <c r="C358" s="4">
-        <v>0.70833333333333337</v>
+        <v>0.375</v>
       </c>
       <c r="D358" s="1" t="s">
         <v>464</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F358" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="359" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A359" s="2">
-        <v>44740.316631944443</v>
+        <v>44741.415381944447</v>
       </c>
       <c r="B359" s="3">
-        <v>44742</v>
+        <v>44744</v>
       </c>
       <c r="C359" s="4">
-        <v>0.375</v>
+        <v>0.625</v>
       </c>
       <c r="D359" s="1" t="s">
         <v>465</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="360" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A360" s="2">
-        <v>44741.415381944447</v>
+        <v>44742.02207175926</v>
       </c>
       <c r="B360" s="3">
         <v>44744</v>
       </c>
       <c r="C360" s="4">
-        <v>0.625</v>
+        <v>0.4375</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>466</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F360" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="361" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A361" s="2">
-        <v>44742.02207175926</v>
+        <v>44745.549166666664</v>
       </c>
       <c r="B361" s="3">
-        <v>44744</v>
+        <v>44746</v>
       </c>
       <c r="C361" s="4">
-        <v>0.4375</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D361" s="1" t="s">
         <v>467</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="362" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A362" s="2">
-        <v>44745.549166666664</v>
+        <v>44746.428888888891</v>
       </c>
       <c r="B362" s="3">
-        <v>44746</v>
+        <v>44751</v>
       </c>
       <c r="C362" s="4">
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D362" s="1" t="s">
         <v>468</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="363" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A363" s="2">
-        <v>44746.428888888891</v>
+        <v>44761.892766203702</v>
       </c>
       <c r="B363" s="3">
-        <v>44751</v>
+        <v>44765</v>
       </c>
       <c r="C363" s="4">
-        <v>0.41666666666666669</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>469</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="364" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A364" s="2">
-        <v>44761.892766203702</v>
+        <v>44764.434363425928</v>
       </c>
       <c r="B364" s="3">
         <v>44765</v>
       </c>
       <c r="C364" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D364" s="1" t="s">
         <v>470</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="365" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A365" s="2">
-        <v>44764.434363425928</v>
+        <v>44767.647222222222</v>
       </c>
       <c r="B365" s="3">
-        <v>44765</v>
+        <v>44768</v>
       </c>
       <c r="C365" s="4">
-        <v>0.33333333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>471</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="366" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A366" s="2">
-        <v>44767.647222222222</v>
+        <v>44773.079270833332</v>
       </c>
       <c r="B366" s="3">
-        <v>44768</v>
+        <v>44823</v>
       </c>
       <c r="C366" s="4">
-        <v>0.375</v>
+        <v>0.98958333333333337</v>
       </c>
       <c r="D366" s="1" t="s">
         <v>472</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="367" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A367" s="2">
-        <v>44773.079270833332</v>
+        <v>44773.606307870374</v>
       </c>
       <c r="B367" s="3">
-        <v>44823</v>
+        <v>44776</v>
       </c>
       <c r="C367" s="4">
-        <v>0.98958333333333337</v>
+        <v>0.5625</v>
       </c>
       <c r="D367" s="1" t="s">
         <v>473</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="368" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A368" s="2">
-        <v>44773.606307870374</v>
+        <v>44775.675636574073</v>
       </c>
       <c r="B368" s="3">
-        <v>44776</v>
+        <v>44777</v>
       </c>
       <c r="C368" s="4">
-        <v>0.5625</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D368" s="1" t="s">
         <v>474</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="369" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A369" s="2">
-        <v>44775.675636574073</v>
+        <v>44776.090185185189</v>
       </c>
       <c r="B369" s="3">
-        <v>44777</v>
+        <v>44779</v>
       </c>
       <c r="C369" s="4">
-        <v>0.33333333333333331</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D369" s="1" t="s">
         <v>475</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="370" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A370" s="2">
-        <v>44776.090185185189</v>
+        <v>44777.516458333332</v>
       </c>
       <c r="B370" s="3">
-        <v>44779</v>
+        <v>44785</v>
       </c>
       <c r="C370" s="4">
-        <v>0.47916666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="D370" s="1" t="s">
         <v>476</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F370" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="371" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A371" s="2">
-        <v>44777.516458333332</v>
+        <v>44781.724363425928</v>
       </c>
       <c r="B371" s="3">
-        <v>44785</v>
+        <v>44878</v>
       </c>
       <c r="C371" s="4">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="D371" s="1" t="s">
         <v>477</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="372" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A372" s="2">
-        <v>44781.724363425928</v>
+        <v>44782.543541666666</v>
       </c>
       <c r="B372" s="3">
-        <v>44878</v>
+        <v>44782</v>
       </c>
       <c r="C372" s="4">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D372" s="1" t="s">
         <v>478</v>
@@ -9472,138 +9469,138 @@
         <v>268</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="373" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A373" s="2">
-        <v>44782.543541666666</v>
+        <v>44783.898356481484</v>
       </c>
       <c r="B373" s="3">
-        <v>44782</v>
+        <v>44786</v>
       </c>
       <c r="C373" s="4">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="D373" s="1" t="s">
         <v>479</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F373" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="374" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A374" s="2">
-        <v>44783.898356481484</v>
+        <v>44787.365208333336</v>
       </c>
       <c r="B374" s="3">
-        <v>44786</v>
+        <v>44793</v>
       </c>
       <c r="C374" s="4">
-        <v>0.375</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="D374" s="1" t="s">
         <v>480</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="375" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A375" s="2">
-        <v>44787.365208333336</v>
+        <v>44788.877939814818</v>
       </c>
       <c r="B375" s="3">
-        <v>44793</v>
+        <v>44795</v>
       </c>
       <c r="C375" s="4">
-        <v>0.35416666666666669</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D375" s="1" t="s">
         <v>481</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="376" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A376" s="2">
-        <v>44788.877939814818</v>
+        <v>44790.465879629628</v>
       </c>
       <c r="B376" s="3">
         <v>44795</v>
       </c>
       <c r="C376" s="4">
-        <v>0.54166666666666663</v>
+        <v>0.41667824074074072</v>
       </c>
       <c r="D376" s="1" t="s">
         <v>482</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F376" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="377" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A377" s="2">
-        <v>44790.465879629628</v>
+        <v>44790.74359953704</v>
       </c>
       <c r="B377" s="3">
-        <v>44795</v>
+        <v>44793</v>
       </c>
       <c r="C377" s="4">
-        <v>0.41667824074074072</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D377" s="1" t="s">
         <v>483</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="378" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A378" s="2">
-        <v>44790.74359953704</v>
+        <v>44797.495289351849</v>
       </c>
       <c r="B378" s="3">
-        <v>44793</v>
+        <v>44799</v>
       </c>
       <c r="C378" s="4">
-        <v>0.45833333333333331</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D378" s="1" t="s">
         <v>484</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="379" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A379" s="2">
-        <v>44797.495289351849</v>
+        <v>44805.776747685188</v>
       </c>
       <c r="B379" s="3">
-        <v>44799</v>
+        <v>44807</v>
       </c>
       <c r="C379" s="4">
-        <v>0.58333333333333337</v>
+        <v>0.375</v>
       </c>
       <c r="D379" s="1" t="s">
         <v>485</v>
@@ -9612,298 +9609,298 @@
         <v>268</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="380" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A380" s="2">
-        <v>44805.776747685188</v>
+        <v>44806.571932870371</v>
       </c>
       <c r="B380" s="3">
-        <v>44807</v>
+        <v>44808</v>
       </c>
       <c r="C380" s="4">
-        <v>0.375</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="D380" s="1" t="s">
         <v>486</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F380" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="381" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A381" s="2">
-        <v>44806.571932870371</v>
+        <v>44812.493877314817</v>
       </c>
       <c r="B381" s="3">
-        <v>44808</v>
+        <v>44815</v>
       </c>
       <c r="C381" s="4">
-        <v>0.57291666666666663</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D381" s="1" t="s">
         <v>487</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="382" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A382" s="2">
-        <v>44812.493877314817</v>
+        <v>44812.594351851854</v>
       </c>
       <c r="B382" s="3">
-        <v>44815</v>
+        <v>44814</v>
       </c>
       <c r="C382" s="4">
-        <v>0.54166666666666663</v>
+        <v>0.4375</v>
       </c>
       <c r="D382" s="1" t="s">
         <v>488</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="383" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A383" s="2">
-        <v>44812.594351851854</v>
+        <v>44815.570057870369</v>
       </c>
       <c r="B383" s="3">
-        <v>44814</v>
+        <v>44818</v>
       </c>
       <c r="C383" s="4">
-        <v>0.4375</v>
+        <v>0.5</v>
       </c>
       <c r="D383" s="1" t="s">
         <v>489</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="384" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A384" s="2">
-        <v>44815.570057870369</v>
+        <v>44819.579282407409</v>
       </c>
       <c r="B384" s="3">
-        <v>44818</v>
+        <v>44821</v>
       </c>
       <c r="C384" s="4">
-        <v>0.5</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D384" s="1" t="s">
         <v>490</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="385" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A385" s="2">
-        <v>44819.579282407409</v>
+        <v>44819.76053240741</v>
       </c>
       <c r="B385" s="3">
         <v>44821</v>
       </c>
       <c r="C385" s="4">
-        <v>0.39583333333333331</v>
+        <v>0.5625</v>
       </c>
       <c r="D385" s="1" t="s">
         <v>491</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="386" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A386" s="2">
-        <v>44819.76053240741</v>
+        <v>44823.834398148145</v>
       </c>
       <c r="B386" s="3">
-        <v>44821</v>
+        <v>44828</v>
       </c>
       <c r="C386" s="4">
-        <v>0.5625</v>
+        <v>0.4375</v>
       </c>
       <c r="D386" s="1" t="s">
         <v>492</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="387" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A387" s="2">
-        <v>44823.834398148145</v>
+        <v>44829.437638888892</v>
       </c>
       <c r="B387" s="3">
-        <v>44828</v>
+        <v>44842</v>
       </c>
       <c r="C387" s="4">
-        <v>0.4375</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D387" s="1" t="s">
         <v>493</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="388" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A388" s="2">
-        <v>44829.437638888892</v>
+        <v>44833.393148148149</v>
       </c>
       <c r="B388" s="3">
-        <v>44842</v>
+        <v>44839</v>
       </c>
       <c r="C388" s="4">
-        <v>0.45833333333333331</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="D388" s="1" t="s">
         <v>494</v>
       </c>
       <c r="E388" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F388" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="389" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A389" s="2">
-        <v>44833.393148148149</v>
+        <v>44838.430717592593</v>
       </c>
       <c r="B389" s="3">
-        <v>44839</v>
+        <v>44842</v>
       </c>
       <c r="C389" s="4">
-        <v>0.35416666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="D389" s="1" t="s">
         <v>495</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F389" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="390" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A390" s="2">
-        <v>44838.430717592593</v>
-      </c>
-      <c r="B390" s="3">
+        <v>44839.48369212963</v>
+      </c>
+      <c r="B390" s="7">
         <v>44842</v>
       </c>
       <c r="C390" s="4">
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D390" s="1" t="s">
         <v>496</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F390" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="391" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A391" s="2">
-        <v>44839.48369212963</v>
-      </c>
-      <c r="B391" s="7">
-        <v>44842</v>
+      <c r="A391" s="6">
+        <v>44845.458402777775</v>
+      </c>
+      <c r="B391" s="3">
+        <v>44849</v>
       </c>
       <c r="C391" s="4">
-        <v>0.54166666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D391" s="1" t="s">
         <v>497</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="392" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A392" s="6">
-        <v>44845.458402777775</v>
+        <v>44845.627129629633</v>
       </c>
       <c r="B392" s="3">
         <v>44849</v>
       </c>
       <c r="C392" s="4">
-        <v>0.58333333333333337</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D392" s="1" t="s">
         <v>498</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F392" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="393" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A393" s="6">
-        <v>44845.627129629633</v>
+        <v>44853.961238425924</v>
       </c>
       <c r="B393" s="3">
-        <v>44849</v>
+        <v>44856</v>
       </c>
       <c r="C393" s="4">
-        <v>0.39583333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D393" s="1" t="s">
         <v>499</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="394" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A394" s="6">
-        <v>44853.961238425924</v>
+        <v>44861.879629629628</v>
       </c>
       <c r="B394" s="3">
-        <v>44856</v>
+        <v>44863</v>
       </c>
       <c r="C394" s="4">
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D394" s="1" t="s">
         <v>500</v>
@@ -9912,295 +9909,295 @@
         <v>268</v>
       </c>
       <c r="F394" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="395" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A395" s="6">
-        <v>44861.879629629628</v>
-      </c>
-      <c r="B395" s="3">
-        <v>44863</v>
+        <v>44865.399953703702</v>
+      </c>
+      <c r="B395" s="7">
+        <v>44868</v>
       </c>
       <c r="C395" s="4">
-        <v>0.45833333333333331</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="D395" s="1" t="s">
         <v>501</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F395" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="396" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A396" s="6">
-        <v>44865.399953703702</v>
-      </c>
-      <c r="B396" s="7">
-        <v>44868</v>
+      <c r="A396" s="2">
+        <v>44874.627557870372</v>
+      </c>
+      <c r="B396" s="3">
+        <v>44877</v>
       </c>
       <c r="C396" s="4">
-        <v>0.35416666666666669</v>
+        <v>0.3125</v>
       </c>
       <c r="D396" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E396" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="397" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A397" s="2">
-        <v>44874.627557870372</v>
+      <c r="A397" s="6">
+        <v>44875.908136574071</v>
       </c>
       <c r="B397" s="3">
-        <v>44877</v>
+        <v>44884</v>
       </c>
       <c r="C397" s="4">
-        <v>0.3125</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F397" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="398" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A398" s="6">
-        <v>44875.908136574071</v>
+        <v>44880.787962962961</v>
       </c>
       <c r="B398" s="3">
         <v>44884</v>
       </c>
       <c r="C398" s="4">
-        <v>0.54166666666666663</v>
+        <v>0.4375</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="399" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A399" s="6">
-        <v>44880.787962962961</v>
+        <v>44882.441041666665</v>
       </c>
       <c r="B399" s="3">
         <v>44884</v>
       </c>
       <c r="C399" s="4">
-        <v>0.4375</v>
+        <v>0.5</v>
       </c>
       <c r="D399" s="1" t="s">
         <v>504</v>
       </c>
       <c r="E399" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="400" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A400" s="6">
-        <v>44882.441041666665</v>
+        <v>44888.803182870368</v>
       </c>
       <c r="B400" s="3">
-        <v>44884</v>
+        <v>44890</v>
       </c>
       <c r="C400" s="4">
-        <v>0.5</v>
+        <v>0.3125</v>
       </c>
       <c r="D400" s="1" t="s">
         <v>505</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F400" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="401" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A401" s="6">
-        <v>44888.803182870368</v>
+        <v>44889.888796296298</v>
       </c>
       <c r="B401" s="3">
-        <v>44890</v>
+        <v>44893</v>
       </c>
       <c r="C401" s="4">
-        <v>0.3125</v>
+        <v>0.6875</v>
       </c>
       <c r="D401" s="1" t="s">
         <v>506</v>
       </c>
       <c r="E401" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F401" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="402" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A402" s="6">
-        <v>44889.888796296298</v>
-      </c>
-      <c r="B402" s="3">
-        <v>44893</v>
+        <v>44892.772592592592</v>
+      </c>
+      <c r="B402" s="7">
+        <v>44898</v>
       </c>
       <c r="C402" s="4">
-        <v>0.6875</v>
+        <v>0.375</v>
       </c>
       <c r="D402" s="1" t="s">
         <v>507</v>
       </c>
       <c r="E402" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="403" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A403" s="6">
-        <v>44892.772592592592</v>
+      <c r="A403" s="2">
+        <v>44896.616539351853</v>
       </c>
       <c r="B403" s="7">
-        <v>44898</v>
+        <v>44899</v>
       </c>
       <c r="C403" s="4">
-        <v>0.375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D403" s="1" t="s">
         <v>508</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="404" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A404" s="2">
-        <v>44896.616539351853</v>
+        <v>44896.693738425929</v>
       </c>
       <c r="B404" s="7">
         <v>44899</v>
       </c>
       <c r="C404" s="4">
-        <v>0.39583333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="D404" s="1" t="s">
         <v>509</v>
       </c>
       <c r="E404" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F404" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="405" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A405" s="2">
-        <v>44896.693738425929</v>
-      </c>
-      <c r="B405" s="7">
-        <v>44899</v>
+        <v>44896.754675925928</v>
+      </c>
+      <c r="B405" s="3">
+        <v>44905</v>
       </c>
       <c r="C405" s="4">
-        <v>0.375</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="D405" s="1" t="s">
         <v>510</v>
       </c>
       <c r="E405" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F405" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="406" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A406" s="2">
-        <v>44896.754675925928</v>
+        <v>44897.737384259257</v>
       </c>
       <c r="B406" s="3">
         <v>44905</v>
       </c>
       <c r="C406" s="4">
-        <v>0.64583333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="D406" s="1" t="s">
         <v>511</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F406" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="407" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A407" s="2">
-        <v>44897.737384259257</v>
+        <v>44904.774050925924</v>
       </c>
       <c r="B407" s="3">
-        <v>44905</v>
+        <v>44542</v>
       </c>
       <c r="C407" s="4">
-        <v>0.625</v>
+        <v>0.32291666666666669</v>
       </c>
       <c r="D407" s="1" t="s">
         <v>512</v>
       </c>
       <c r="E407" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="408" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A408" s="2">
-        <v>44904.774050925924</v>
+      <c r="A408" s="6">
+        <v>44908.650069444448</v>
       </c>
       <c r="B408" s="3">
-        <v>44542</v>
+        <v>44919</v>
       </c>
       <c r="C408" s="4">
-        <v>0.32291666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="D408" s="1" t="s">
         <v>513</v>
       </c>
       <c r="E408" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="409" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A409" s="6">
-        <v>44908.650069444448</v>
+        <v>44908.853518518517</v>
       </c>
       <c r="B409" s="3">
-        <v>44919</v>
+        <v>44913</v>
       </c>
       <c r="C409" s="4">
         <v>0.5</v>
@@ -10209,18 +10206,18 @@
         <v>514</v>
       </c>
       <c r="E409" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="410" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A410" s="6">
-        <v>44908.853518518517</v>
+        <v>44909.684305555558</v>
       </c>
       <c r="B410" s="3">
-        <v>44913</v>
+        <v>44919</v>
       </c>
       <c r="C410" s="4">
         <v>0.5</v>
@@ -10229,221 +10226,221 @@
         <v>515</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F410" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="411" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A411" s="6">
-        <v>44909.684305555558</v>
+        <v>44909.705381944441</v>
       </c>
       <c r="B411" s="3">
-        <v>44919</v>
+        <v>44914</v>
       </c>
       <c r="C411" s="4">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="D411" s="1" t="s">
         <v>516</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F411" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="412" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A412" s="6">
-        <v>44909.705381944441</v>
+        <v>44909.784513888888</v>
       </c>
       <c r="B412" s="3">
-        <v>44914</v>
+        <v>44913</v>
       </c>
       <c r="C412" s="4">
-        <v>0.625</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D412" s="1" t="s">
         <v>517</v>
       </c>
       <c r="E412" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F412" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="413" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A413" s="6">
-        <v>44909.784513888888</v>
+        <v>44910.603564814817</v>
       </c>
       <c r="B413" s="3">
-        <v>44913</v>
+        <v>44918</v>
       </c>
       <c r="C413" s="4">
-        <v>0.41666666666666669</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D413" s="1" t="s">
         <v>518</v>
       </c>
       <c r="E413" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F413" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="414" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A414" s="6">
-        <v>44910.603564814817</v>
+        <v>44913.554872685185</v>
       </c>
       <c r="B414" s="3">
-        <v>44918</v>
+        <v>44919</v>
       </c>
       <c r="C414" s="4">
-        <v>0.72916666666666663</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="D414" s="1" t="s">
         <v>519</v>
       </c>
       <c r="E414" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F414" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="415" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A415" s="6">
-        <v>44913.554872685185</v>
+        <v>44913.616388888891</v>
       </c>
       <c r="B415" s="3">
-        <v>44919</v>
+        <v>44916</v>
       </c>
       <c r="C415" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="D415" s="1" t="s">
         <v>520</v>
       </c>
       <c r="E415" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F415" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="416" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A416" s="6">
-        <v>44913.616388888891</v>
+        <v>44914.868981481479</v>
       </c>
       <c r="B416" s="3">
-        <v>44916</v>
+        <v>44919</v>
       </c>
       <c r="C416" s="4">
-        <v>0.60416666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D416" s="1" t="s">
         <v>521</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F416" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="417" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A417" s="6">
-        <v>44914.868981481479</v>
+        <v>44915.777488425927</v>
       </c>
       <c r="B417" s="3">
-        <v>44919</v>
+        <v>44918</v>
       </c>
       <c r="C417" s="4">
-        <v>0.45833333333333331</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D417" s="1" t="s">
         <v>522</v>
       </c>
       <c r="E417" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F417" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="418" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A418" s="6">
-        <v>44915.777488425927</v>
+        <v>44923.563981481479</v>
       </c>
       <c r="B418" s="3">
-        <v>44918</v>
+        <v>44926</v>
       </c>
       <c r="C418" s="4">
-        <v>0.54166666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D418" s="1" t="s">
         <v>523</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F418" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="419" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A419" s="6">
-        <v>44923.563981481479</v>
+        <v>44924.594629629632</v>
       </c>
       <c r="B419" s="3">
         <v>44926</v>
       </c>
       <c r="C419" s="4">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D419" s="1" t="s">
         <v>524</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F419" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="420" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A420" s="6">
-        <v>44924.594629629632</v>
-      </c>
-      <c r="B420" s="3">
-        <v>44926</v>
+      <c r="A420" s="2">
+        <v>44929.638148148151</v>
+      </c>
+      <c r="B420" s="7">
+        <v>44932</v>
       </c>
       <c r="C420" s="4">
-        <v>0.41666666666666669</v>
+        <v>0.75</v>
       </c>
       <c r="D420" s="1" t="s">
         <v>525</v>
       </c>
       <c r="E420" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F420" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="421" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A421" s="2">
-        <v>44929.638148148151</v>
+        <v>44934.951990740738</v>
       </c>
       <c r="B421" s="7">
-        <v>44932</v>
+        <v>44940</v>
       </c>
       <c r="C421" s="4">
-        <v>0.75</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="D421" s="1" t="s">
         <v>526</v>
@@ -10452,198 +10449,198 @@
         <v>268</v>
       </c>
       <c r="F421" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="422" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A422" s="2">
-        <v>44934.951990740738</v>
+        <v>44935.733831018515</v>
       </c>
       <c r="B422" s="7">
-        <v>44940</v>
+        <v>44938</v>
       </c>
       <c r="C422" s="4">
-        <v>0.35416666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="D422" s="1" t="s">
         <v>527</v>
       </c>
       <c r="E422" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F422" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="423" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A423" s="2">
-        <v>44935.733831018515</v>
+        <v>44938.621458333335</v>
       </c>
       <c r="B423" s="7">
-        <v>44938</v>
+        <v>44953</v>
       </c>
       <c r="C423" s="4">
-        <v>0.375</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D423" s="1" t="s">
         <v>528</v>
       </c>
       <c r="E423" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F423" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="424" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A424" s="2">
-        <v>44938.621458333335</v>
-      </c>
-      <c r="B424" s="7">
-        <v>44953</v>
+        <v>44940.072222222225</v>
+      </c>
+      <c r="B424" s="3">
+        <v>44942</v>
       </c>
       <c r="C424" s="4">
-        <v>0.54166666666666663</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="E424" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F424" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="425" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A425" s="2">
-        <v>44940.072222222225</v>
-      </c>
-      <c r="B425" s="3">
-        <v>44942</v>
+        <v>44940.812731481485</v>
+      </c>
+      <c r="B425" s="7">
+        <v>44943</v>
       </c>
       <c r="C425" s="4">
-        <v>0.47916666666666669</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="E425" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F425" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="426" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A426" s="2">
-        <v>44940.812731481485</v>
+        <v>44942.808680555558</v>
       </c>
       <c r="B426" s="7">
-        <v>44943</v>
+        <v>44946</v>
       </c>
       <c r="C426" s="4">
-        <v>0.72916666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D426" s="1" t="s">
         <v>530</v>
       </c>
       <c r="E426" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F426" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="427" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A427" s="2">
-        <v>44942.808680555558</v>
+        <v>44945.446296296293</v>
       </c>
       <c r="B427" s="7">
         <v>44946</v>
       </c>
       <c r="C427" s="4">
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="D427" s="1" t="s">
         <v>531</v>
       </c>
       <c r="E427" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F427" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="428" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A428" s="2">
-        <v>44945.446296296293</v>
+        <v>44946.155972222223</v>
       </c>
       <c r="B428" s="7">
-        <v>44946</v>
+        <v>44954</v>
       </c>
       <c r="C428" s="4">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="D428" s="1" t="s">
         <v>532</v>
       </c>
       <c r="E428" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F428" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="429" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A429" s="2">
-        <v>44946.155972222223</v>
+        <v>44948.591886574075</v>
       </c>
       <c r="B429" s="7">
-        <v>44954</v>
+        <v>44950</v>
       </c>
       <c r="C429" s="4">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="D429" s="1" t="s">
         <v>533</v>
       </c>
       <c r="E429" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F429" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="430" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A430" s="2">
-        <v>44948.591886574075</v>
+        <v>44955.423622685186</v>
       </c>
       <c r="B430" s="7">
-        <v>44950</v>
+        <v>44956</v>
       </c>
       <c r="C430" s="4">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D430" s="1" t="s">
         <v>534</v>
       </c>
       <c r="E430" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F430" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="431" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A431" s="2">
-        <v>44955.423622685186</v>
+        <v>44958.558622685188</v>
       </c>
       <c r="B431" s="7">
-        <v>44956</v>
+        <v>44971</v>
       </c>
       <c r="C431" s="4">
-        <v>0.75</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="D431" s="1" t="s">
         <v>535</v>
@@ -10652,87 +10649,67 @@
         <v>268</v>
       </c>
       <c r="F431" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="432" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A432" s="2">
-        <v>44958.558622685188</v>
+        <v>44958.606238425928</v>
       </c>
       <c r="B432" s="7">
-        <v>44971</v>
+        <v>44968</v>
       </c>
       <c r="C432" s="4">
-        <v>0.36458333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="D432" s="1" t="s">
         <v>536</v>
       </c>
       <c r="E432" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F432" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="433" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A433" s="2">
-        <v>44958.606238425928</v>
+        <v>44958.724097222221</v>
       </c>
       <c r="B433" s="7">
-        <v>44968</v>
+        <v>44961</v>
       </c>
       <c r="C433" s="4">
-        <v>0.29166666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="D433" s="1" t="s">
         <v>537</v>
       </c>
       <c r="E433" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F433" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="434" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A434" s="2">
-        <v>44958.724097222221</v>
+        <v>44959.909675925926</v>
       </c>
       <c r="B434" s="7">
-        <v>44961</v>
+        <v>44962</v>
       </c>
       <c r="C434" s="4">
-        <v>0.5</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D434" s="1" t="s">
         <v>538</v>
       </c>
       <c r="E434" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F434" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="435" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A435" s="2">
-        <v>44959.909675925926</v>
-      </c>
-      <c r="B435" s="7">
-        <v>44962</v>
-      </c>
-      <c r="C435" s="4">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D435" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="E435" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F435" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
